--- a/Extra/Cutepest Data.xlsx
+++ b/Extra/Cutepest Data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Personal files\Ignou Project\IGNOU_PROJECT\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802B9967-5586-4B5F-A1DC-1940983161CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF2C3EC-7963-4C6E-8E76-492D12D5B2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ABF16375-111A-4E37-B1A7-62672899A326}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,19 +27,243 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>Admin Privileges</t>
   </si>
   <si>
-    <t>can add product</t>
+    <t>Client Side modules</t>
+  </si>
+  <si>
+    <t>1. Search a Product</t>
+  </si>
+  <si>
+    <t>2. Purchase a Product</t>
+  </si>
+  <si>
+    <t>3. View Last Orders</t>
+  </si>
+  <si>
+    <t>4. Check Customers Info</t>
+  </si>
+  <si>
+    <t>1. can add product</t>
+  </si>
+  <si>
+    <t>2. check transactions
+or sales</t>
+  </si>
+  <si>
+    <t>3. can delete product</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almost Done
+Component ready </t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>5. Admin Authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Server Side</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>almost Done</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>1. Giving Authorisation
+to Admin</t>
+  </si>
+  <si>
+    <t>2. Customer Authentication</t>
+  </si>
+  <si>
+    <t>4. User Registration</t>
+  </si>
+  <si>
+    <t>5. User Login</t>
+  </si>
+  <si>
+    <t>6. Filter Product</t>
+  </si>
+  <si>
+    <t>6. Modify Product</t>
+  </si>
+  <si>
+    <t>3. adding Product</t>
+  </si>
+  <si>
+    <t>almost done</t>
+  </si>
+  <si>
+    <t>4. modifiying product</t>
+  </si>
+  <si>
+    <t>5. delete product</t>
+  </si>
+  <si>
+    <t>6. List of Transactions or sales</t>
+  </si>
+  <si>
+    <t>7. Register Stray Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Register Stray (C) </t>
+  </si>
+  <si>
+    <t>7. Approve Stray Animal</t>
+  </si>
+  <si>
+    <t>8. Register Stray (A)</t>
+  </si>
+  <si>
+    <t>9. Approve Existing Stray Animal (A)</t>
+  </si>
+  <si>
+    <t>4. Request Stray Adoption</t>
+  </si>
+  <si>
+    <t>Transactions or Sales 
+Data Fields</t>
+  </si>
+  <si>
+    <t>1. User Name</t>
+  </si>
+  <si>
+    <t>2. Product Name</t>
+  </si>
+  <si>
+    <t>3. Product Quantity</t>
+  </si>
+  <si>
+    <t>4. Price</t>
+  </si>
+  <si>
+    <t>5. Date of Order</t>
+  </si>
+  <si>
+    <t>6. Status of Order</t>
+  </si>
+  <si>
+    <t>7. Product id</t>
+  </si>
+  <si>
+    <t>Manage Product</t>
+  </si>
+  <si>
+    <t>8. Add New Stray Product</t>
+  </si>
+  <si>
+    <t>Delete product</t>
+  </si>
+  <si>
+    <t>1. id of product</t>
+  </si>
+  <si>
+    <t>Edit Product</t>
+  </si>
+  <si>
+    <t>1. id of Product
+(immuatable)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>serialnod</t>
+  </si>
+  <si>
+    <t>breed</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Polydactyl Cat</t>
+  </si>
+  <si>
+    <t>2 months</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>[#000,#22D3EF]</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Some String</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>featured</t>
+  </si>
+  <si>
+    <t>shipping</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>reviews</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>"id": "randomid1",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "height": 650,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "width": 1080,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "url": " https://cdn.britannica.com/91/181391-050-1DA18304/cat-toes-paw-number-paws-tiger-tabby.jpg?w=600&amp;q=60",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "filename": "prod-1.png",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "size": 1080,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "type": "image/png",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "_id": "63c7058385ef6f5834a9ae8a"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. complete data </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +271,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -62,18 +343,142 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -382,28 +787,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06403E8-1460-4E80-BDAB-4A96A8F8CC27}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="30.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.5">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="29.5" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64447DED-8161-464C-A960-3CF17E69BE62}">
+  <dimension ref="B1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15" thickBot="1"/>
+    <row r="2" spans="2:8" ht="29">
+      <c r="B2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="29">
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15" thickBot="1">
+      <c r="B9" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F23D51-8C5E-43AA-ADC2-9F06C397B2F2}">
+  <dimension ref="D4:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="16"/>
+    <col min="5" max="5" width="102.54296875" style="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:5">
+      <c r="D4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5">
+      <c r="D5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="19">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="E16" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>